--- a/biology/Zoologie/Acanthochelys_spixii/Acanthochelys_spixii.xlsx
+++ b/biology/Zoologie/Acanthochelys_spixii/Acanthochelys_spixii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Platémyde de Spix (Acanthochelys spixii) est une espèce de tortues de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Platémyde de Spix (Acanthochelys spixii) est une espèce de tortues de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Amérique du Sud[1]. Elle se rencontre :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Amérique du Sud. Elle se rencontre :
 au Brésil, dans les États de Bahia, de Goiás, du Minas Gerais, du Paraná, du Rio Grande do Sul, de Santa Catarina et de São Paulo ;
 en Uruguay ;
 en Argentine, dans les provinces de Corrientes et de Mendoza.
@@ -546,7 +560,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine cette espèce a été décrite par Johann Baptist von Spix (1781-1826) sous le nom de Emys depressa en 1824. Ce nom était préoccupé par Merrem, 1820 et a été renommé en Platemys spixii par Duméril &amp; Bibron en 1835 en l'honneur de son découvreur.
 </t>
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Duméril et Bibron, 1835 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles, vol. 2. Librairie Encyclopédique de Roret, Paris, p. 1-680 (texte intégral).
 Merrem, 1820 : Versuch eines Systems der Amphibien I (Tentamen Systematis Amphibiorum). J. C. Krieger, Marburg, p. 1-191 (texte intégral).
